--- a/Results_BGC_Guilds_CH4.xlsx
+++ b/Results_BGC_Guilds_CH4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cliftonbdemesquita/Documents/GitHub/EastCoast/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9129DA-8720-1A4E-9445-AA1297A8A2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114DF06-2867-C34B-BB19-112CDDAF2D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="460" windowWidth="18040" windowHeight="20960" xr2:uid="{153ED997-22D4-F14A-970F-DF2D7B760B48}"/>
+    <workbookView xWindow="35860" yWindow="460" windowWidth="29300" windowHeight="26840" xr2:uid="{153ED997-22D4-F14A-970F-DF2D7B760B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="85">
   <si>
     <t>Variable</t>
   </si>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,6 +441,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE12FD69-8177-3646-AA8F-D2F20075F8E3}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,39 +788,73 @@
     <col min="7" max="10" width="3.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="2:24" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-    </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="N1" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+    </row>
+    <row r="2" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="6"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="5"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -851,8 +888,41 @@
       <c r="L3" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
@@ -886,8 +956,41 @@
       <c r="L4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>37</v>
       </c>
@@ -921,8 +1024,41 @@
       <c r="L5" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -956,8 +1092,41 @@
       <c r="L6" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
@@ -991,8 +1160,41 @@
       <c r="L7" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1026,8 +1228,41 @@
       <c r="L8" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1061,8 +1296,41 @@
       <c r="L9" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
@@ -1096,8 +1364,41 @@
       <c r="L10" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1131,8 +1432,41 @@
       <c r="L11" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1166,8 +1500,41 @@
       <c r="L12" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T12" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1201,8 +1568,41 @@
       <c r="L13" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X13" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>55</v>
       </c>
@@ -1236,8 +1636,41 @@
       <c r="L14" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>55</v>
       </c>
@@ -1271,8 +1704,41 @@
       <c r="L15" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1306,8 +1772,41 @@
       <c r="L16" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
@@ -1341,8 +1840,41 @@
       <c r="L17" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="14" t="s">
         <v>3</v>
       </c>
@@ -1376,8 +1908,41 @@
       <c r="L18" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>2</v>
       </c>
@@ -1411,8 +1976,41 @@
       <c r="L19" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>56</v>
       </c>
@@ -1446,8 +2044,41 @@
       <c r="L20" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>56</v>
       </c>
@@ -1481,8 +2112,41 @@
       <c r="L21" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
         <v>61</v>
       </c>
@@ -1516,8 +2180,41 @@
       <c r="L22" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="s">
         <v>29</v>
       </c>
@@ -1551,8 +2248,41 @@
       <c r="L23" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="V23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
@@ -1586,8 +2316,41 @@
       <c r="L24" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
         <v>4</v>
       </c>
@@ -1621,8 +2384,41 @@
       <c r="L25" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1656,8 +2452,41 @@
       <c r="L26" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
         <v>30</v>
       </c>
@@ -1691,8 +2520,41 @@
       <c r="L27" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="O27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
@@ -1726,8 +2588,41 @@
       <c r="L28" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>31</v>
       </c>
@@ -1761,8 +2656,41 @@
       <c r="L29" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
         <v>38</v>
       </c>
@@ -1796,8 +2724,41 @@
       <c r="L30" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N30" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W30" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X30" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
@@ -1831,8 +2792,41 @@
       <c r="L31" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O31" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X31" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B32" s="9" t="s">
         <v>40</v>
       </c>
@@ -1866,8 +2860,41 @@
       <c r="L32" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
         <v>41</v>
       </c>
@@ -1901,8 +2928,41 @@
       <c r="L33" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W33" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X33" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
         <v>42</v>
       </c>
@@ -1936,8 +2996,41 @@
       <c r="L34" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W34" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B35" s="9" t="s">
         <v>43</v>
       </c>
@@ -1971,8 +3064,41 @@
       <c r="L35" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X35" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B36" s="9" t="s">
         <v>44</v>
       </c>
@@ -2006,8 +3132,41 @@
       <c r="L36" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N36" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="W36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B37" s="9" t="s">
         <v>45</v>
       </c>
@@ -2041,8 +3200,41 @@
       <c r="L37" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N37" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V37" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X37" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B38" s="9" t="s">
         <v>51</v>
       </c>
@@ -2076,8 +3268,41 @@
       <c r="L38" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>57</v>
       </c>
@@ -2111,8 +3336,41 @@
       <c r="L39" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="W39" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
         <v>47</v>
       </c>
@@ -2146,8 +3404,41 @@
       <c r="L40" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="W40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
@@ -2181,8 +3472,41 @@
       <c r="L41" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N41" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="U41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X41" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B42" s="9" t="s">
         <v>49</v>
       </c>
@@ -2216,8 +3540,41 @@
       <c r="L42" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N42" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="O42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="W42" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X42" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B43" s="9" t="s">
         <v>69</v>
       </c>
@@ -2251,8 +3608,41 @@
       <c r="L43" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N43" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="O43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U43" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="X43" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" s="9" t="s">
         <v>50</v>
       </c>
@@ -2286,8 +3676,41 @@
       <c r="L44" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="O44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>52</v>
       </c>
@@ -2321,121 +3744,250 @@
       <c r="L45" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W45" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="N46" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="18"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-    </row>
-    <row r="48" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="N47" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+    </row>
+    <row r="48" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-    </row>
-    <row r="49" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="N48" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+    </row>
+    <row r="49" spans="1:24" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-    </row>
-    <row r="50" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="N49" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+    </row>
+    <row r="50" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="N50" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B52" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N52" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C54" t="s">
         <v>82</v>
       </c>
+      <c r="N54" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O54" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="14">
+    <mergeCell ref="N49:X49"/>
+    <mergeCell ref="N50:X50"/>
+    <mergeCell ref="N1:X1"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="N46:X46"/>
+    <mergeCell ref="N47:X47"/>
+    <mergeCell ref="N48:X48"/>
     <mergeCell ref="B49:L49"/>
     <mergeCell ref="B50:L50"/>
     <mergeCell ref="G2:J2"/>
